--- a/src/main/resources/exampleReport.xlsx
+++ b/src/main/resources/exampleReport.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tamer\Documents\tout\Developer\Projets\CryptoManager\src\main\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tamer\Documents\tout\Developer\tmp\CryptoManager\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C20E02F8-A98D-4859-8DF6-3D0E4A2AB693}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FDCDB6F-BF03-454C-8E2A-89C7159E7CAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Capital gains" sheetId="1" r:id="rId1"/>
@@ -381,7 +381,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -426,7 +428,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6177B72B-2DD2-4543-B447-0C304A370AA2}">
   <dimension ref="A1:E1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
